--- a/output/below_50/tRNA-Gln-CTG-2-1.xlsx
+++ b/output/below_50/tRNA-Gln-CTG-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>chr6</t>
   </si>
@@ -207,171 +207,6 @@
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>27515584</t>
-  </si>
-  <si>
-    <t>27515607</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27515587</t>
-  </si>
-  <si>
-    <t>AGAGGGGTTCCATGGTGTAA</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>74% (57)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 31, Doench 2016: 56%, Moreno-Mateos: 74%</t>
-  </si>
-  <si>
-    <t>2964251773</t>
-  </si>
-  <si>
-    <t>27515601</t>
-  </si>
-  <si>
-    <t>27515624</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>27515604</t>
-  </si>
-  <si>
-    <t>TTGGGTGAAGCGTACCAAGA</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>98% (84)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 78%, Moreno-Mateos: 98%</t>
-  </si>
-  <si>
-    <t>2.69038E+11</t>
-  </si>
-  <si>
-    <t>27515796</t>
-  </si>
-  <si>
-    <t>27515819</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27515816</t>
-  </si>
-  <si>
-    <t>CAATTAACTCAGAAACTTGG</t>
-  </si>
-  <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 69%, Moreno-Mateos: 27%</t>
-  </si>
-  <si>
-    <t>3.17905E+11</t>
-  </si>
-  <si>
-    <t>27515820</t>
-  </si>
-  <si>
-    <t>27515843</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27515823</t>
-  </si>
-  <si>
-    <t>TAATGAAGAAAGCAAGGCTC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>39% (40)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 59%, Moreno-Mateos: 39%</t>
-  </si>
-  <si>
-    <t>46785030135</t>
-  </si>
-  <si>
-    <t>27515881</t>
-  </si>
-  <si>
-    <t>27515904</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>27515884</t>
-  </si>
-  <si>
-    <t>CAGAAAGCATAGAAGAAGTT</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 53%, Moreno-Mateos: 65%</t>
-  </si>
-  <si>
-    <t>1.33006E+11</t>
   </si>
 </sst>
 </file>
@@ -416,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -776,301 +611,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>117</v>
-      </c>
-      <c r="R11" t="s">
-        <v>118</v>
-      </c>
-      <c r="S11" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
